--- a/output/endemo2_coefficients_production.xlsx
+++ b/output/endemo2_coefficients_production.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,11 @@
           <t>Production is empty</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Last Data Entry</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -528,6 +533,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(2018.0, 5400.0)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +578,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -608,6 +623,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(2018.0, 4693.0)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -648,6 +668,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -688,6 +713,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(2018.0, 29732.0)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -728,6 +758,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -768,6 +803,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -808,6 +848,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(2018.0, 4910.0)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -848,6 +893,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(2018.0, 10523.0)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -888,6 +938,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -928,6 +983,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(2018.0, 4520.0)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -968,6 +1028,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(2021.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1008,6 +1073,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1048,6 +1118,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(2018.0, 1660.0)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1088,6 +1163,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(2018.0, 6813.0)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1128,6 +1208,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(2018.0, 6177.0)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1168,6 +1253,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(2018.0, 5402.0)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1208,6 +1298,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1248,6 +1343,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(2018.0, 2175.0)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1288,6 +1388,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1328,6 +1433,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(2018.0, 4785.0)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1368,6 +1478,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(2018.0, 2796.0)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1408,6 +1523,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(2018.0, 2830.0)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1448,6 +1568,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(2018.0, 5650.0)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1488,6 +1613,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1528,6 +1658,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1568,6 +1703,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1608,6 +1748,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1648,6 +1793,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1688,6 +1838,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(2018.0, 1770.0)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1728,6 +1883,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(2018.0, 695.0)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1768,6 +1928,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1808,6 +1973,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(2021.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1846,6 +2016,11 @@
       <c r="H35" t="inlineStr">
         <is>
           <t>False</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(2021.0, 0.0)</t>
         </is>
       </c>
     </row>
@@ -1860,7 +2035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1909,6 +2084,11 @@
           <t>Production is empty</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Last Data Entry</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1949,6 +2129,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(2018.0, 2648.985992)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1989,6 +2174,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2029,6 +2219,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(2018.0, 217.60000000000002)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2069,6 +2264,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2109,6 +2309,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(2018.0, 4942.245083333333)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2149,6 +2354,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2189,6 +2399,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2229,6 +2444,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(2018.0, 792.0)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2269,6 +2489,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(2018.0, 2622.9848895833334)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2309,6 +2534,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2349,6 +2579,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(2018.0, 1000.0)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2389,6 +2624,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2429,6 +2669,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2469,6 +2714,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(2018.0, 580.392)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2509,6 +2759,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(2018.0, 2496.33775)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2549,6 +2804,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(2018.0, 200.0)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2589,6 +2849,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(2018.0, 467.836)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2629,6 +2894,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(2018.0, 297.15986625)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2669,6 +2939,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2709,6 +2984,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2749,6 +3029,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(2018.0, 35.9296656)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2789,6 +3074,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(2018.0, 178.0)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2829,6 +3119,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(2018.0, 206.7047)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2869,6 +3164,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2909,6 +3209,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2949,6 +3254,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2989,6 +3299,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3029,6 +3344,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3069,6 +3389,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3109,6 +3434,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(2018.0, 160.0)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3149,6 +3479,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3189,6 +3524,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3229,6 +3569,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3267,6 +3612,11 @@
       <c r="H35" t="inlineStr">
         <is>
           <t>True</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3330,6 +3680,11 @@
           <t>Production is empty</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Last Data Entry</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3370,6 +3725,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(2018.0, 1193.0465022727271)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3410,6 +3770,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3450,6 +3815,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(2018.0, 217.60000000000002)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3490,6 +3860,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3530,6 +3905,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(2018.0, 3838.2545)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3570,6 +3950,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3610,6 +3995,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3650,6 +4040,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(2018.0, 1219.6806)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3690,6 +4085,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(2018.0, 2176.8173598333333)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3730,6 +4130,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3770,6 +4175,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(2018.0, 1050.0)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3810,6 +4220,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3850,6 +4265,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3890,6 +4310,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(2018.0, 360.031)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3930,6 +4355,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(2018.0, 1980.5271818181818)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3970,6 +4400,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(2018.0, 200.0)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4010,6 +4445,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(2018.0, 357.43625)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4050,6 +4490,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(2018.0, 142.4879005)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4090,6 +4535,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(2018.0, 240.649509)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4130,6 +4580,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4170,6 +4625,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(2018.0, 33.81251725)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4210,6 +4670,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(2018.0, 168.0)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4250,6 +4715,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(2018.0, 267.8821)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4290,6 +4760,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4330,6 +4805,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(2018.0, 175.26033333333334)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4370,6 +4850,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4410,6 +4895,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4450,6 +4940,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4490,6 +4985,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4530,6 +5030,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(2018.0, 95.5)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4570,6 +5075,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4610,6 +5120,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4650,6 +5165,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(2018.0, 49.660763)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4688,6 +5208,11 @@
       <c r="H35" t="inlineStr">
         <is>
           <t>True</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
         </is>
       </c>
     </row>
@@ -4702,7 +5227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4751,6 +5276,11 @@
           <t>Production is empty</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Last Data Entry</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4791,6 +5321,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(2018.0, 785.4211831)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4831,6 +5366,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4871,6 +5411,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(2018.0, 448.2032)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4911,6 +5456,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4951,6 +5501,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(2018.0, 3360.67775)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4991,6 +5546,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5031,6 +5591,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5071,6 +5636,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(2018.0, 542.34525)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5111,6 +5681,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(2018.0, 1104.7296556666668)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5151,6 +5726,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(2018.0, 15.867666666666667)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5191,6 +5771,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(2018.0, 952.7279166666666)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5231,6 +5816,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5271,6 +5861,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5311,6 +5906,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(2018.0, 471.7058)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5351,6 +5951,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(2018.0, 2320.4530333333337)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5391,6 +5996,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5431,6 +6041,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(2018.0, 552.784875)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5471,6 +6086,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(2018.0, 304.94484775)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5511,6 +6131,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(2018.0, 42.774075)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5551,6 +6176,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5591,6 +6221,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(2018.0, 123.3148508)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5631,6 +6266,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5671,6 +6311,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(2018.0, 10.395588888888888)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5711,6 +6356,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(2018.0, 66.773069125)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5751,6 +6401,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5791,6 +6446,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5831,6 +6491,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5871,6 +6536,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5911,6 +6581,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5951,6 +6626,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5991,6 +6671,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6031,6 +6716,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6071,6 +6761,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6109,6 +6804,11 @@
       <c r="H35" t="inlineStr">
         <is>
           <t>False</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.003025925925925926)</t>
         </is>
       </c>
     </row>
@@ -6123,7 +6823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6172,6 +6872,11 @@
           <t>Production is empty</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Last Data Entry</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6212,6 +6917,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(2019.0, 1945.0)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6252,6 +6962,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(2019.0, 160.0)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6292,6 +7007,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(2019.0, 882.0)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6332,6 +7052,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(2019.0, 152.0)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6372,6 +7097,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(2019.0, 22073.0)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6412,6 +7142,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(2019.0, 60.0)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6452,6 +7187,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(2019.0, 321.0)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6492,6 +7232,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(2019.0, 5800.0)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6532,6 +7277,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(2019.0, 7325.0)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6572,6 +7322,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(2019.0, 340.0)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6612,6 +7367,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(2019.0, 8901.0)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6652,6 +7412,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(2019.0, 16.0)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6692,6 +7457,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(2019.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6732,6 +7502,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(2019.0, 847.0)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6772,6 +7547,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(2019.0, 2895.0)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6812,6 +7592,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(2019.0, 4985.0)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6852,6 +7637,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(2019.0, 4860.0)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6892,6 +7682,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(2019.0, 2080.0)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6932,6 +7727,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(2019.0, 561.0)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6972,6 +7772,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(2019.0, 719.0)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7012,6 +7817,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(2019.0, 806.0)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7052,6 +7862,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(2019.0, 9710.0)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7092,6 +7907,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(2019.0, 9616.0)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7132,6 +7952,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(2019.0, 3852.0)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7172,6 +7997,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(2019.0, 1155.0)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7212,6 +8042,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(2019.0, 1094.0)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7252,6 +8087,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7292,6 +8132,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(2019.0, 28.0)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7332,6 +8177,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7372,6 +8222,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(2019.0, 544.0)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7412,6 +8267,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7452,6 +8312,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(2019.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7492,6 +8357,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(2019.0, 159.0)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7530,6 +8400,11 @@
       <c r="H35" t="inlineStr">
         <is>
           <t>False</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(2019.0, 67.0)</t>
         </is>
       </c>
     </row>
@@ -7544,7 +8419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7593,6 +8468,11 @@
           <t>Production is empty</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Last Data Entry</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7633,6 +8513,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(2020.0, 6038.578326)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7673,6 +8558,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(2020.0, 2731.319346)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7713,6 +8603,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(2020.0, 4479.877374)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7753,6 +8648,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(2020.0, 2018.939082)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7793,6 +8693,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(2020.0, 31745.52149)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7833,6 +8738,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(2020.0, 4004.516602)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7873,6 +8783,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(2020.0, 17000.0)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7913,6 +8828,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(2020.0, 15867.5937)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7953,6 +8873,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(2020.0, 14613.24902)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7993,6 +8918,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(2020.0, 2536.260403)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8033,6 +8963,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(2020.0, 18936.2868)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8073,6 +9008,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(2020.0, 1362.391753)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8113,6 +9053,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(2020.0, 1100.740928)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8153,6 +9098,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(2020.0, 2524.282683)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8193,6 +9143,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(2020.0, 2382.503062)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8233,6 +9188,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(2020.0, 4487.952512)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8273,6 +9233,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(2020.0, 16491.54981)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8313,6 +9278,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(2020.0, 5284.236557)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8353,6 +9323,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(2020.0, 8358.828308)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8393,6 +9368,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(2020.0, 1291.315038)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8433,6 +9413,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(2020.0, 4339.474329)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8473,6 +9458,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(2020.0, 1131.243765)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8513,6 +9503,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(2020.0, 3534.935488)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8553,6 +9548,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(2020.0, 11740.86551)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8593,6 +9593,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(2020.0, 2051.999173)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8633,6 +9638,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(2020.0, 4799.371561)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8673,6 +9683,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8713,6 +9728,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(2020.0, 1027.101967)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8753,6 +9773,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(2020.0, 1869.796091)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8793,6 +9818,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(2020.0, 1944.478398)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8833,6 +9863,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(2020.0, 845.6288776)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8873,6 +9908,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(2020.0, 227.74974444226)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8913,6 +9953,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(2020.0, 1192.50035085522)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8951,6 +9996,11 @@
       <c r="H35" t="inlineStr">
         <is>
           <t>False</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(2020.0, 446.702733121385)</t>
         </is>
       </c>
     </row>
@@ -8965,7 +10015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9014,6 +10064,11 @@
           <t>Production is empty</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Last Data Entry</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9054,6 +10109,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(2018.0, 1696.2620790196077)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9094,6 +10154,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(2018.0, 170.676)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9134,6 +10199,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(2018.0, 1448.7715925490197)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9174,6 +10244,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(2018.0, 346.90947333333327)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9214,6 +10289,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(2018.0, 7038.415612352941)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9254,6 +10334,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(2018.0, 23.40166)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9294,6 +10379,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(2018.0, 322.55930666666666)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9334,6 +10424,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(2018.0, 3402.2591929411765)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9374,6 +10469,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(2018.0, 5747.494365882352)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9414,6 +10514,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(2018.0, 450.00800000000004)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9454,6 +10559,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(2018.0, 5078.750479411765)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9494,6 +10604,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(2018.0, 27.441176470588236)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9534,6 +10649,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(2018.0, 307.7745)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9574,6 +10694,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(2018.0, 612.8382433333333)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9614,6 +10739,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(2018.0, 1308.1360596078432)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9654,6 +10784,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9694,6 +10829,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(2018.0, 2365.38289)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9734,6 +10874,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(2018.0, 1442.6082999999999)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9774,6 +10919,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(2018.0, 450.0414933333333)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9814,6 +10964,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(2018.0, 112.5559)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9854,6 +11009,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(2018.0, 341.567122745098)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9894,6 +11054,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(2018.0, 580.896342745098)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9934,6 +11099,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(2018.0, 447.41219333333333)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9974,6 +11144,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(2018.0, 3363.4717829411766)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10014,6 +11189,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10054,6 +11234,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -10094,6 +11279,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -10134,6 +11324,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -10174,6 +11369,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -10214,6 +11414,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(2018.0, 109.5)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -10254,6 +11459,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10294,6 +11504,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10334,6 +11549,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(2018.0, 51.160619999999994)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10372,6 +11592,11 @@
       <c r="H35" t="inlineStr">
         <is>
           <t>False</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(2018.0, 134.95833333333331)</t>
         </is>
       </c>
     </row>
@@ -10386,7 +11611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10435,6 +11660,11 @@
           <t>Production is empty</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Last Data Entry</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -10475,6 +11705,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(2019.0, 2520.0)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -10515,6 +11750,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(2019.0, 566.0)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -10555,6 +11795,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(2019.0, 234.0)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -10595,6 +11840,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(2002.0, 392.0)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -10635,6 +11885,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(2019.0, 11905.0)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -10675,6 +11930,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(2001.0, 150.0)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -10715,6 +11975,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(2019.0, 1350.0)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -10755,6 +12020,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(2019.0, 9348.0)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10795,6 +12065,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(2019.0, 4388.0)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10835,6 +12110,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(2019.0, 69.0)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10875,6 +12155,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(2019.0, 19030.0)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10915,6 +12200,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(2013.0, 198.0)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10955,6 +12245,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(2019.0, 2119.0)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10995,6 +12290,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(2019.0, 352.0)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11035,6 +12335,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(2016.0, 93.0)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11075,6 +12380,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(2019.0, 709.0)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11115,6 +12425,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(2019.0, 4037.0)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11155,6 +12470,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(2019.0, 2033.0)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11195,6 +12515,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(2019.0, 1115.0)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11235,6 +12560,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(2019.0, 623.0)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11275,6 +12605,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(2019.0, 250.0)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11315,6 +12650,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(2019.0, 1155.0)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11355,6 +12695,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(2019.0, 1596.0)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11395,6 +12740,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(2019.0, 1531.0)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11435,6 +12785,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(2019.0, 621.0)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11475,6 +12830,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(2019.0, 1500.0)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11515,6 +12875,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(2019.0, 75.0)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11555,6 +12920,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(2019.0, 239.0)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11595,6 +12965,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(2016.0, 50.0)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11635,6 +13010,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(2019.0, 174.0)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11675,6 +13055,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(2013.0, 1.0)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11715,6 +13100,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11755,6 +13145,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11793,6 +13188,11 @@
       <c r="H35" t="inlineStr">
         <is>
           <t>True</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
         </is>
       </c>
     </row>
@@ -11807,7 +13207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11856,6 +13256,11 @@
           <t>Production is empty</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Last Data Entry</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -11896,6 +13301,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -11936,6 +13346,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -11976,6 +13391,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -12016,6 +13436,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -12056,6 +13481,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(2020.0, 550.0)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -12096,6 +13526,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -12136,6 +13571,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(2020.0, 182.0)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -12176,6 +13616,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(2020.0, 200.0)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -12216,6 +13661,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(2020.0, 430.0)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -12256,6 +13706,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -12296,6 +13751,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -12336,6 +13796,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12376,6 +13841,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12416,6 +13886,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12456,6 +13931,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(2020.0, 150.0)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12496,6 +13976,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12536,6 +14021,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12576,6 +14066,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12616,6 +14111,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(2020.0, 271.0)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12656,6 +14156,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(2020.0, 70.0)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -12696,6 +14201,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(2020.0, 152.0)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -12736,6 +14246,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -12776,6 +14291,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(2020.0, 117.0)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -12816,6 +14336,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(2020.0, 48.0)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -12856,6 +14381,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(2020.0, 1330.0)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -12896,6 +14426,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -12936,6 +14471,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(2020.0, 60.0)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -12976,6 +14516,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -13016,6 +14561,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -13056,6 +14606,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -13096,6 +14651,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(2019.0, 69.0)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -13136,6 +14696,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(2020.0, 860.0)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -13176,6 +14741,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -13214,6 +14784,11 @@
       <c r="H35" t="inlineStr">
         <is>
           <t>True</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
         </is>
       </c>
     </row>
@@ -13228,7 +14803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13277,6 +14852,11 @@
           <t>Production is empty</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Last Data Entry</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -13317,6 +14897,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -13357,6 +14942,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(2018.0, 13.0)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -13397,6 +14987,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(2018.0, 15.0)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -13437,6 +15032,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(2018.0, 25.0)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -13477,6 +15077,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(2018.0, 796.0)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -13517,6 +15122,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -13557,6 +15167,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(2018.0, 3.0)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -13597,6 +15212,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(2018.0, 243.0)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -13637,6 +15257,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(2018.0, 222.0)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -13677,6 +15302,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(2018.0, 2.0)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -13717,6 +15347,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(2018.0, 666.0)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -13757,6 +15392,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -13797,6 +15437,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13837,6 +15482,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(2018.0, 50.0)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13877,6 +15527,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(2018.0, 25.0)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13917,6 +15572,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(2018.0, 150.0)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13957,6 +15617,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(2018.0, 19.0)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13997,6 +15662,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(2018.0, 18.0)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14037,6 +15707,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(2018.0, 11.0)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14077,6 +15752,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(2018.0, 20.0)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14117,6 +15797,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14157,6 +15842,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(2018.0, 36.0)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14197,6 +15887,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(2018.0, 32.0)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -14237,6 +15932,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(2018.0, 198.0)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -14277,6 +15977,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -14317,6 +16022,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(2018.0, 190.0)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -14357,6 +16067,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -14397,6 +16112,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -14437,6 +16157,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -14477,6 +16202,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(2018.0, 1.0)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -14517,6 +16247,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.015)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -14557,6 +16292,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -14597,6 +16337,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -14635,6 +16380,11 @@
       <c r="H35" t="inlineStr">
         <is>
           <t>True</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
         </is>
       </c>
     </row>
@@ -14649,7 +16399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14698,6 +16448,11 @@
           <t>Production is empty</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Last Data Entry</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -14738,6 +16493,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -14778,6 +16538,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(2018.0, 304.9)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -14818,6 +16583,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -14858,6 +16628,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -14898,6 +16673,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(2018.0, 311.2)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -14938,6 +16718,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -14978,6 +16763,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -15018,6 +16808,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(2018.0, 284.8)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -15058,6 +16853,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -15098,6 +16898,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -15138,6 +16943,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -15178,6 +16988,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -15218,6 +17033,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -15258,6 +17078,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -15298,6 +17123,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -15338,6 +17168,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15378,6 +17213,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(2018.0, 461.865)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15418,6 +17258,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15458,6 +17303,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15498,6 +17348,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15538,6 +17393,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15578,6 +17438,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(2018.0, 150.0)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15618,6 +17483,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(2018.0, 150.0)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15658,6 +17528,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -15698,6 +17573,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -15738,6 +17618,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -15778,6 +17663,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -15818,6 +17708,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -15858,6 +17753,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -15898,6 +17798,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(2018.0, 66.0)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -15938,6 +17843,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -15978,6 +17888,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -16018,6 +17933,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -16056,6 +17976,11 @@
       <c r="H35" t="inlineStr">
         <is>
           <t>True</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
         </is>
       </c>
     </row>
@@ -16070,7 +17995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16119,6 +18044,11 @@
           <t>Production is empty</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Last Data Entry</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -16159,6 +18089,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(2018.0, 140.5)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -16199,6 +18134,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(2018.0, 53.8)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -16239,6 +18179,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -16279,6 +18224,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -16319,6 +18269,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(2018.0, 157.4)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -16359,6 +18314,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -16399,6 +18359,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -16439,6 +18404,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(2018.0, 10.6)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -16479,6 +18449,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -16519,6 +18494,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -16559,6 +18539,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -16599,6 +18584,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -16639,6 +18629,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -16679,6 +18674,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -16719,6 +18719,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -16759,6 +18764,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(2018.0, 70.0)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -16799,6 +18809,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(2018.0, 50.001)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16839,6 +18854,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16879,6 +18899,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.0)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16919,6 +18944,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16959,6 +18989,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(2018.0, 38.379)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16999,6 +19034,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(2018.0, 4.0)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17039,6 +19079,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(2018.0, 60.0)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17079,6 +19124,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17119,6 +19169,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17159,6 +19214,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17199,6 +19259,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -17239,6 +19304,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -17279,6 +19349,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -17319,6 +19394,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(2018.0, 1.0)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -17359,6 +19439,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -17399,6 +19484,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -17439,6 +19529,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -17477,6 +19572,11 @@
       <c r="H35" t="inlineStr">
         <is>
           <t>True</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
         </is>
       </c>
     </row>
@@ -17491,7 +19591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17540,6 +19640,11 @@
           <t>Production is empty</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Last Data Entry</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -17580,6 +19685,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(2020.0, 859.2)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -17620,6 +19730,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(2018.0, 99.2)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -17660,6 +19775,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(2020.0, 55.2)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -17700,6 +19820,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -17740,6 +19865,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(2020.0, 4312.0)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -17780,6 +19910,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(2020.0, 8.0)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -17820,6 +19955,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(2020.0, 8.0)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -17860,6 +20000,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(2020.0, 327.20000000000005)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -17900,6 +20045,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(2020.0, 1101.6000000000001)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -17940,6 +20090,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -17980,6 +20135,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(2020.0, 269.6)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -18020,6 +20180,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -18060,6 +20225,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -18100,6 +20270,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(2020.0, 384.0)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -18140,6 +20315,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(2020.0, 677.6)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -18180,6 +20360,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(2020.0, 60.0)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -18220,6 +20405,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(2020.0, 304.8)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -18260,6 +20450,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(2020.0, 113.60000000000001)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -18300,6 +20495,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(2020.0, 166.4)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18340,6 +20540,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(2020.0, 12.8)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18380,6 +20585,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(2020.0, 56.0)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18420,6 +20630,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(2020.0, 60.0)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18460,6 +20675,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(2020.0, 98.4)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18500,6 +20720,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(2020.0, 392.8)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18540,6 +20765,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(2020.0, 292.8)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18580,6 +20810,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(2020.0, 37.6)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18620,6 +20855,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18660,6 +20900,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -18700,6 +20945,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -18740,6 +20990,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -18780,6 +21035,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -18820,6 +21080,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -18860,6 +21125,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -18898,6 +21168,11 @@
       <c r="H35" t="inlineStr">
         <is>
           <t>True</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
         </is>
       </c>
     </row>
@@ -18912,7 +21187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18961,6 +21236,11 @@
           <t>Production is empty</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Last Data Entry</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -19001,6 +21281,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(2018.0, 830.0)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -19041,6 +21326,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(2018.0, 320.0)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -19081,6 +21371,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(2018.0, 200.0)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -19121,6 +21416,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.223068)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -19161,6 +21461,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(2018.0, 2583.0129166666666)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -19201,6 +21506,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -19241,6 +21551,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(2018.0, 52.975622)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -19281,6 +21596,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(2018.0, 417.7713333333333)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -19321,6 +21641,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(2018.0, 785.2521053333334)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -19361,6 +21686,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(2018.0, 325.59425)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -19401,6 +21731,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(2018.0, 304.979)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -19441,6 +21776,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -19481,6 +21821,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -19521,6 +21866,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(2018.0, 300.0)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -19561,6 +21911,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(2018.0, 1800.0)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -19601,6 +21956,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(2018.0, 400.0)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -19641,6 +22001,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(2018.0, 2028.428)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -19681,6 +22046,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -19721,6 +22091,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(2018.0, 750.921272)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19761,6 +22136,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -19801,6 +22181,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(2018.0, 399.19604)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19841,6 +22226,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19881,6 +22271,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19921,6 +22316,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(2018.0, 313.3929835)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19961,6 +22361,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20001,6 +22406,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20041,6 +22451,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20081,6 +22496,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20121,6 +22541,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -20161,6 +22586,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(2018.0, 70.0)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20201,6 +22631,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -20241,6 +22676,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -20281,6 +22721,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(2018.0, 763.5463065833334)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -20319,6 +22764,11 @@
       <c r="H35" t="inlineStr">
         <is>
           <t>False</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(2018.0, 50.6763)</t>
         </is>
       </c>
     </row>
@@ -20333,7 +22783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20382,6 +22832,11 @@
           <t>Production is empty</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Last Data Entry</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -20422,6 +22877,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(2018.0, 5.480067)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -20462,6 +22922,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -20502,6 +22967,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.483)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -20542,6 +23012,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.25165)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -20582,6 +23057,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(2018.0, 1129.557)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -20622,6 +23102,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -20662,6 +23147,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -20702,6 +23192,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.8125)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -20742,6 +23237,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(2018.0, 13.637166)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -20782,6 +23282,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.001312)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -20822,6 +23327,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -20862,6 +23372,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -20902,6 +23417,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -20942,6 +23462,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.103)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -20982,6 +23507,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(2018.0, 477.34)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -21022,6 +23552,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -21062,6 +23597,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -21102,6 +23642,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -21142,6 +23687,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.010061)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21182,6 +23732,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -21222,6 +23777,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -21262,6 +23822,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -21302,6 +23867,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -21342,6 +23912,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(2018.0, 0.164385)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21382,6 +23957,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(2018.0, 720.0)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21422,6 +24002,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21462,6 +24047,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21502,6 +24092,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21542,6 +24137,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21582,6 +24182,11 @@
           <t>False</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(2018.0, 156.0)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21622,6 +24227,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21662,6 +24272,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21702,6 +24317,11 @@
           <t>True</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -21740,6 +24360,11 @@
       <c r="H35" t="inlineStr">
         <is>
           <t>True</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(nan, nan)</t>
         </is>
       </c>
     </row>
